--- a/main/target/classes/org/example/College SAT.ACT data as exel.xlsx
+++ b/main/target/classes/org/example/College SAT.ACT data as exel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Charles Bennington\Documents\GitHub\workPlay\main\src\main\resources\org\example\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C598E124-43F5-4FE1-BA95-50E83D611985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C031BECE-3B79-407A-A14A-82A18BCA3172}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2340" yWindow="1260" windowWidth="17892" windowHeight="10848" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6363,7 +6363,7 @@
   <dimension ref="A1:G417"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
